--- a/classfiers/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
+++ b/classfiers/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C2" t="n">
         <v>0.75</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7317073170731706</v>
+        <v>0.6122448979591838</v>
       </c>
       <c r="E2" t="n">
-        <v>0.735</v>
+        <v>0.5642857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8539473684210527</v>
+        <v>0.4809523809523809</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8484848484848484</v>
+        <v>0.5625</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9276315789473684</v>
+        <v>0.8654761904761904</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.975609756097561</v>
+        <v>0.9545454545454545</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6470588235294117</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6473684210526316</v>
+        <v>0.795</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8669467787114845</v>
+        <v>0.7430266684839399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7652631578947368</v>
+        <v>0.6557142857142857</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8072388157036648</v>
+        <v>0.652143784786642</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8327894736842104</v>
+        <v>0.7311428571428571</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
+++ b/classfiers/nano/knn/nearmiss/nano-knn-nearmiss-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6122448979591838</v>
+        <v>0.6382978723404255</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5642857142857143</v>
+        <v>0.6662049861495845</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4809523809523809</v>
+        <v>0.6759002770083102</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5625</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8654761904761904</v>
+        <v>0.8753462603878116</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9545454545454545</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="E5" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E6" t="n">
-        <v>0.795</v>
+        <v>0.72953216374269</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7430266684839399</v>
+        <v>0.7429128376496797</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6557142857142857</v>
+        <v>0.6631578947368422</v>
       </c>
       <c r="D7" t="n">
-        <v>0.652143784786642</v>
+        <v>0.6591189872739214</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7311428571428571</v>
+        <v>0.7893967374576792</v>
       </c>
     </row>
   </sheetData>
